--- a/xYoV_Calcs.xlsx
+++ b/xYoV_Calcs.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\CAR CUSTOMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10685747862\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC83E287-B597-4AC9-A6B8-9AABB3CA62AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E247B861-CCF3-4979-85F8-4BD48A9E21A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="XYoV Calc." sheetId="5" r:id="rId1"/>
+    <sheet name="DLL" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>Araç yaşı</t>
   </si>
@@ -140,24 +177,266 @@
   </si>
   <si>
     <t>Amortisman indirim oranı</t>
+  </si>
+  <si>
+    <t>ÖTV</t>
+  </si>
+  <si>
+    <t>KDV</t>
+  </si>
+  <si>
+    <t>Gümrük Müdürlüğü</t>
+  </si>
+  <si>
+    <t>TSE işlem bedeli</t>
+  </si>
+  <si>
+    <t>TSE Uygunluk belgesi</t>
+  </si>
+  <si>
+    <t>Egsoz Muayenesi</t>
+  </si>
+  <si>
+    <t>Araç Muayenesi</t>
+  </si>
+  <si>
+    <t>TUVTÜRK</t>
+  </si>
+  <si>
+    <t>Araç Plaka Bağış Bedeli</t>
+  </si>
+  <si>
+    <t>Emniyet Müdürlüğü</t>
+  </si>
+  <si>
+    <t>Noter İşlem Bedeli</t>
+  </si>
+  <si>
+    <t>Noter</t>
+  </si>
+  <si>
+    <t>Plaka Bastırma</t>
+  </si>
+  <si>
+    <t>Her araç için ayrı hesaplanır</t>
+  </si>
+  <si>
+    <t>BEDELSİZ OTO İTHALATI MASRAF DÖKÜMÜ</t>
+  </si>
+  <si>
+    <t>Motor Hacmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatura Yılı                                                                 </t>
+  </si>
+  <si>
+    <t>Sair Masraf</t>
+  </si>
+  <si>
+    <t>YIL</t>
+  </si>
+  <si>
+    <t>MOTOR HACMİ</t>
+  </si>
+  <si>
+    <t>&gt; 2.000 cc</t>
+  </si>
+  <si>
+    <t>1.600 - 2.000 cc</t>
+  </si>
+  <si>
+    <t>0 - 1.600 cc</t>
+  </si>
+  <si>
+    <t>Arabanızın motor hacmini listeden seçiniz.</t>
+  </si>
+  <si>
+    <t>Arabanızın üretim yılını listeden seçiniz.</t>
+  </si>
+  <si>
+    <t>Arabanızın fatura düzenlenme yılını listeden seçiniz.</t>
+  </si>
+  <si>
+    <t>Gümrük Giriş Yılı</t>
+  </si>
+  <si>
+    <t>Türkiye'ye kesin dönüş yılınızı listeden seçiniz.</t>
+  </si>
+  <si>
+    <t>Amortisman İndirim Oranı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilk yıl amortismanı ilave </t>
+  </si>
+  <si>
+    <t>amortisman oranı</t>
+  </si>
+  <si>
+    <t>toplam amortisman</t>
+  </si>
+  <si>
+    <t>Vergiye esas alınan oran</t>
+  </si>
+  <si>
+    <t>Diplomatik indirim sonrası fatura bedelini EUR cinsinden giriniz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÖTV Oranı         </t>
+  </si>
+  <si>
+    <t>Döviz Kuru (EUR-TRY)</t>
+  </si>
+  <si>
+    <t>KDV Matrahı</t>
+  </si>
+  <si>
+    <t>KDV Oranı</t>
+  </si>
+  <si>
+    <t>Araç Fatura Bedeli (EUR)</t>
+  </si>
+  <si>
+    <t>AMORTİSMAN +1 YIL</t>
+  </si>
+  <si>
+    <t>TRT Bandrolü</t>
+  </si>
+  <si>
+    <t>Damga Vergisi</t>
+  </si>
+  <si>
+    <t>ÖTV Matrahı</t>
+  </si>
+  <si>
+    <t>CIF Kıymeti (EUR cinsinden)</t>
+  </si>
+  <si>
+    <t>CIF Kıymeti (TRY cinsinden)</t>
+  </si>
+  <si>
+    <t>CIF Bedelinin 130.000 TRY altında olması durumunda %50, üstünde olması durumunda %80'dir</t>
+  </si>
+  <si>
+    <t>Ödenecek KDV Bedeli</t>
+  </si>
+  <si>
+    <t>Ödenecek ÖTV Bedeli</t>
+  </si>
+  <si>
+    <t>İTHALAT TOPLAM MALİYETİ   ~</t>
+  </si>
+  <si>
+    <t>Üretim Yılı (Arabanın Modeli)</t>
+  </si>
+  <si>
+    <t>Bir sonraki yılın Ocak ayını beklemek sureti ile amortisman indiriminden %10 daha fazla yararlanıldığında ortaya çıkan yeni maliyet</t>
+  </si>
+  <si>
+    <t>Kesin dönüş yılında yapılan gümrükleme sonrası ortaya çıkan maliyet</t>
+  </si>
+  <si>
+    <t>MOTOR HACMİ 0 - 1600 cc OLAN ARABALAR İÇİN İTHALAT MALİYETİ HESAP TABLOSU</t>
+  </si>
+  <si>
+    <t>(SADECE YEŞİL KUTULARDAKİ BİLGİLERİ GİRİNİZ !!!)</t>
+  </si>
+  <si>
+    <t>KDV Matrahının % 0.408'i</t>
+  </si>
+  <si>
+    <t>KDV Matrahının %0.408'i</t>
+  </si>
+  <si>
+    <t>TOPLAM MALİYET ~</t>
+  </si>
+  <si>
+    <t>Gümrük İşlem Bedeli ~</t>
+  </si>
+  <si>
+    <t>TRT Bandrol ~</t>
+  </si>
+  <si>
+    <t>İsteğe bağlı (0 /3.000 / 5.000 TL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankara Umum Otomobilciler ve Şoförler Esnaf Odası </t>
+  </si>
+  <si>
+    <t>Araç Proje dosyası açtırma bedeli</t>
+  </si>
+  <si>
+    <t>Masraf Kalemi</t>
+  </si>
+  <si>
+    <t>Miktar</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Yer</t>
+  </si>
+  <si>
+    <t>Gümrük müdürlüklerine verilen beyannameler için damga vergisi bedeli</t>
+  </si>
+  <si>
+    <t>EUR-TRY döviz kuru (otomatik güncellenmektedir.)</t>
+  </si>
+  <si>
+    <t>CIF Kıymeti + Sair Masraf</t>
+  </si>
+  <si>
+    <t>ÖTV Matrahı * ÖTV Oranı</t>
+  </si>
+  <si>
+    <t>ÖTV Matrahı + ÖTV Bedeli</t>
+  </si>
+  <si>
+    <t>KDV Matrahı * KDV Oranı</t>
+  </si>
+  <si>
+    <t>%100 - Amortisman İndirim Oranı (%)</t>
+  </si>
+  <si>
+    <t>Fatura Bedeli * Vergiye Esas Alınan Oran (%)</t>
+  </si>
+  <si>
+    <t>CIF Kıymeti (EUR) * Döviz Kuru (EUR/TRY)</t>
+  </si>
+  <si>
+    <t>(Sabit)</t>
+  </si>
+  <si>
+    <t>Gümrükleme yılı ve Fatura Yılına göre Amortisman İndirim Oranı</t>
+  </si>
+  <si>
+    <t>NOT :</t>
+  </si>
+  <si>
+    <t>Yukarda hazırlanan tablo tavsiye niteliğinde olup hiçbir bağlayıcılığı bulunmamaktadır. Uygulama ve hesaplama farklılıklarında mesuliyet kabul edilmez.</t>
+  </si>
+  <si>
+    <t>~ CIF Kıymeti (TRY) * %1,336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="[$₺-41F]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000000%"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00000"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -181,12 +460,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -199,8 +472,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +563,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -398,66 +784,483 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,6 +1273,313 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>en-US</v>
+    <v>av92kr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>EUR/TRY</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>10.1957</v>
+    <v>6.5803000000000003</v>
+    <v>-4.4999999999999997E-3</v>
+    <v>-5.0210000000000001E-4</v>
+    <v>TRY</v>
+    <v>EUR</v>
+    <v>8.9657999999999998</v>
+    <v>Currency Pair</v>
+    <v>44255.861446759256</v>
+    <v>8.9649000000000001</v>
+    <v>Euro/Turkish Lira FX Cross Rate</v>
+    <v>8.9642999999999997</v>
+    <v>8.9619999999999997</v>
+    <v>8.9574999999999996</v>
+    <v>EURTRY</v>
+    <v>EUR/TRY</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="From currency" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">From currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+    </spb>
+    <spb s="4">
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`_DisplayString" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="4">
+    <x:dxf>
+      <x:numFmt numFmtId="170" formatCode="_-[$₺-41F]* #,##0.00_-;\-[$₺-41F]* #,##0.00_-;_-[$₺-41F]* &quot;-&quot;??_-;_-@_-"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="ShouldShowInCell" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty dxfid="1"/>
+    <rSty dxfid="2"/>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,443 +1878,964 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E862C7-4027-421B-9C77-71025024F9D6}">
-  <dimension ref="G9:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24" style="18" customWidth="1"/>
+    <col min="5" max="5" width="87.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="2:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="49">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="50">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="49">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="51">
+        <v>28500</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="48" cm="1">
+        <f t="array" ref="D8">_FV(DLL!C8,"Price")</f>
+        <v>8.9574999999999996</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="21">
+        <f>DLL!D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="32">
+        <f>1-D9</f>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="22">
+        <f>D7*D10</f>
+        <v>14250</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="31">
+        <f>D11*D8</f>
+        <v>127644.375</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="19">
+        <f>0.01336*D12</f>
+        <v>1705.3288500000001</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="82"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="31">
+        <f>D12+D13</f>
+        <v>129349.70385000001</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="25">
+        <f>IF(D12&lt;130000,0.5,0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="31">
+        <f>D14*D15</f>
+        <v>64674.851925000003</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="19">
+        <f>D14+D16</f>
+        <v>194024.55577500002</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="19">
+        <f>D17*D18</f>
+        <v>34924.420039500001</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="31">
+        <f>D19*0.00408</f>
+        <v>142.49163376116002</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="54">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="34">
+        <f>D6</f>
+        <v>2021</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="58">
+        <f>D16+D19+D20+D21</f>
+        <v>99871.563598261171</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
+        <f>B22+1</f>
+        <v>2022</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="57">
+        <f>DLL!E16</f>
+        <v>80126.578839599999</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="84"/>
+    </row>
+    <row r="26" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+    </row>
+    <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DLL!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DLL!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DLL!$B$8:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DLL!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="N10:O13"/>
+      <selection activeCell="B6" sqref="B6:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="14" max="15" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="16"/>
+    <col min="3" max="3" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="15"/>
+    <col min="5" max="5" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="15"/>
+    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G9" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="20">
+        <f>IF('XYoV Calc.'!D4='XYoV Calc.'!D5,0.1,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E1" s="15">
+        <f>'XYoV Calc.'!D8</f>
+        <v>8.9574999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="20">
+        <f>('XYoV Calc.'!D6-'XYoV Calc.'!D5)*0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="26">
+        <f>'XYoV Calc.'!D7</f>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20">
+        <f>SUM(D1:D2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="20">
+        <f>D4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="20">
+        <f>D3+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="20">
+        <f>1-E3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="26">
+        <f>E2*E4</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="27">
+        <f>E5*E1</f>
+        <v>102115.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="15" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="27">
+        <f>E6+E7</f>
+        <v>103743.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="20">
+        <f>IF(E6&lt;130000,0.5,0.8)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="27">
+        <f>E8*E9</f>
+        <v>51871.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="27">
+        <f>E8+E10</f>
+        <v>155615.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>2025</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>2026</v>
+      </c>
+      <c r="E13" s="27">
+        <f>E11*E12</f>
+        <v>28010.744999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>2027</v>
+      </c>
+      <c r="E14" s="27">
+        <f>E13*0.00408</f>
+        <v>114.28383960000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="27">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="27">
+        <f>E10+E13+E14+E15</f>
+        <v>80126.578839599999</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="7:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H24" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I24" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J24" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="7:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G10" s="3" t="s">
+      <c r="N24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="6" t="s">
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="H36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="12"/>
+      <c r="H38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="I38" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="12"/>
+      <c r="H39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="14"/>
+      <c r="H41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G14" s="5">
-        <v>4</v>
-      </c>
-      <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>10</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G16" s="5">
-        <v>6</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G17" s="5">
-        <v>7</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G18" s="5">
-        <v>8</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G19" s="5">
-        <v>9</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="2"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4189D8C9-B92A-49F1-A24E-5523D03F5FAB}">
-  <dimension ref="D12:F19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="D13:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="11"/>
-      <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="11"/>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="14"/>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D18"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB8426-EC22-4A31-B0C5-8AFFF8DB6B72}">
-  <dimension ref="B1:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="73"/>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>33</v>
       </c>
@@ -1216,4 +2847,202 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="5:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="37">
+        <v>17</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="76"/>
+      <c r="F8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="76"/>
+      <c r="F9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="76"/>
+      <c r="F10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="37">
+        <v>135</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="76"/>
+      <c r="F11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="37">
+        <v>130</v>
+      </c>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="5:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="37">
+        <v>300</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="76"/>
+      <c r="F13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="37">
+        <v>460</v>
+      </c>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="37">
+        <v>90</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="5:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="76"/>
+      <c r="F15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="37">
+        <v>372</v>
+      </c>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="5:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="37">
+        <v>229</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="5:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="37">
+        <v>60</v>
+      </c>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="5:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="78"/>
+      <c r="G19" s="45">
+        <f>SUM(G7:G18)</f>
+        <v>1793</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>